--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints2.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.910556201366312e-13</v>
+        <v>1.000396302973679e-13</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.928117929631266e-13</v>
+        <v>1.030068086700427e-13</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.944794232622351e-13</v>
+        <v>1.057492271483994e-13</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.960728770552451e-13</v>
+        <v>1.082877151021655e-13</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.976065203634454e-13</v>
+        <v>1.106431019010686e-13</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.990947192081244e-13</v>
+        <v>1.128362169148361e-13</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.005518396105709e-13</v>
+        <v>1.148878895131954e-13</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.019922475920733e-13</v>
+        <v>1.168189490658742e-13</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.034303091739204e-13</v>
+        <v>1.186502249425998e-13</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.048803903774006e-13</v>
+        <v>1.204025465130997e-13</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>2.06356857223802e-13</v>
+        <v>1.220967431471006e-13</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.078740757344146e-13</v>
+        <v>1.237536442143317e-13</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>2.094464119305262e-13</v>
+        <v>1.253940790845195e-13</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>2.110882318334253e-13</v>
+        <v>1.270388771273915e-13</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>2.128139014644007e-13</v>
+        <v>1.287088677126753e-13</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>2.146377868447411e-13</v>
+        <v>1.304248802100983e-13</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>2.165742539957348e-13</v>
+        <v>1.32207743989388e-13</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>2.186376689386706e-13</v>
+        <v>1.340782884202719e-13</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>2.208423976948371e-13</v>
+        <v>1.360573428724775e-13</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>2.232028062855229e-13</v>
+        <v>1.381657367157322e-13</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>2.257332607320167e-13</v>
+        <v>1.404242993197636e-13</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>2.284481270556068e-13</v>
+        <v>1.42853860054299e-13</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>2.313617712775821e-13</v>
+        <v>1.45475248289066e-13</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>2.344885594192311e-13</v>
+        <v>1.483092933937922e-13</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>2.378428575018424e-13</v>
+        <v>1.513768247382049e-13</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>2.414390315467046e-13</v>
+        <v>1.546986716920316e-13</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>2.452914475751063e-13</v>
+        <v>1.582956636249998e-13</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>2.494144716083362e-13</v>
+        <v>1.621886299068371e-13</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>2.538224696676806e-13</v>
+        <v>1.663983999072687e-13</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>2.585298077744325e-13</v>
+        <v>1.709458029960263e-13</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>2.635508519498783e-13</v>
+        <v>1.758516685428352e-13</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>2.688999682153066e-13</v>
+        <v>1.811368259174231e-13</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>2.745915225920061e-13</v>
+        <v>1.868221044895175e-13</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>2.806398811012653e-13</v>
+        <v>1.929283336288457e-13</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>2.87059409764373e-13</v>
+        <v>1.994763427051353e-13</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>2.938644746026176e-13</v>
+        <v>2.064869610881137e-13</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>3.010694416372879e-13</v>
+        <v>2.139810181475085e-13</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>3.086886768896722e-13</v>
+        <v>2.219793432530471e-13</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>3.167365463810594e-13</v>
+        <v>2.30502765774457e-13</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>3.252274161327381e-13</v>
+        <v>2.395721150814657e-13</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>3.341756521659967e-13</v>
+        <v>2.492082205438007e-13</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>3.43595620502124e-13</v>
+        <v>2.594319115311894e-13</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>3.535016871624085e-13</v>
+        <v>2.702640174133594e-13</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>3.639082181681387e-13</v>
+        <v>2.81725367560038e-13</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>3.748295795406034e-13</v>
+        <v>2.938367913409528e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>3.862801373010913e-13</v>
+        <v>3.066191181258313e-13</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>3.982742574708908e-13</v>
+        <v>3.200931772844011e-13</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>4.108265502567198e-13</v>
+        <v>3.342799907539273e-13</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>4.240111273000356e-13</v>
+        <v>3.492475040123277e-13</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>4.380388713879985e-13</v>
+        <v>3.651715218932203e-13</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>4.531398101179095e-13</v>
+        <v>3.82242947055693e-13</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>4.695439710870702e-13</v>
+        <v>4.006526821588343e-13</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>4.874813818927812e-13</v>
+        <v>4.205916298617321e-13</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>5.071820701323446e-13</v>
+        <v>4.422506928234752e-13</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>5.288760634030608e-13</v>
+        <v>4.658207737031513e-13</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>5.527933893022315e-13</v>
+        <v>4.914927751598488e-13</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>5.791640754271582e-13</v>
+        <v>5.19457599852656e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>6.082181493751415e-13</v>
+        <v>5.499061504406612e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>6.401856387434832e-13</v>
+        <v>5.830293295829526e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>6.752965711294843e-13</v>
+        <v>6.190180399386183e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>7.137809741304461e-13</v>
+        <v>6.580631841667467e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>7.558688753436698e-13</v>
+        <v>7.003556649264259e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>8.017903023664568e-13</v>
+        <v>7.460863848767446e-13</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>8.517752827961081e-13</v>
+        <v>7.954462466767902e-13</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>9.060538442299254e-13</v>
+        <v>8.486261529856517e-13</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>9.648560142651797e-13</v>
+        <v>9.058170064623881e-13</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.028545879777155e-12</v>
+        <v>9.673513447613615e-13</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.098924109738861e-12</v>
+        <v>1.035079469183664e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.178663438269615e-12</v>
+        <v>1.111773026756984e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.270448860442907e-12</v>
+        <v>1.200216618332213e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.376965371332225e-12</v>
+        <v>1.303194844760243e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>1.500897966011056e-12</v>
+        <v>1.423492306891964e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>1.64493163955289e-12</v>
+        <v>1.56389360557827e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.811751387031215e-12</v>
+        <v>1.727183341670052e-12</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>2.004042203519519e-12</v>
+        <v>1.916146116018202e-12</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>2.22448908409129e-12</v>
+        <v>2.133566529473611e-12</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>2.475777023820016e-12</v>
+        <v>2.38222918288717e-12</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>2.760591017779187e-12</v>
+        <v>2.664918677109774e-12</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>3.08161606104229e-12</v>
+        <v>2.984419612992311e-12</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>3.441537148682812e-12</v>
+        <v>3.343516591385675e-12</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>3.842385737093391e-12</v>
+        <v>3.744330835598951e-12</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>4.278801031889616e-12</v>
+        <v>4.181480029682476e-12</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>4.740748678192785e-12</v>
+        <v>4.644837937911044e-12</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>5.218120614479081e-12</v>
+        <v>5.124203508279264e-12</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>5.700808779224457e-12</v>
+        <v>5.609375688781525e-12</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>6.178705110905571e-12</v>
+        <v>6.090153427412913e-12</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>6.641701547998372e-12</v>
+        <v>6.556335672167813e-12</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>7.079690028979046e-12</v>
+        <v>6.997721371040841e-12</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>7.482562492323776e-12</v>
+        <v>7.404109472026613e-12</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>7.840210876508747e-12</v>
+        <v>7.765298923119745e-12</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>8.142527120010149e-12</v>
+        <v>8.071088672314857e-12</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>8.37940316130416e-12</v>
+        <v>8.311277667606561e-12</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>8.540730938866969e-12</v>
+        <v>8.475664856989478e-12</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>8.616402391174758e-12</v>
+        <v>8.554049188458223e-12</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>8.597266161113774e-12</v>
+        <v>8.537193026885136e-12</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>8.485603997645211e-12</v>
+        <v>8.42737206063263e-12</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>8.291224464503249e-12</v>
+        <v>8.234441602774298e-12</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>8.024068516146737e-12</v>
+        <v>7.968390285993495e-12</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>7.694077107034529e-12</v>
+        <v>7.639206742973574e-12</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>7.311191191625474e-12</v>
+        <v>7.256879606397884e-12</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>6.885351724378429e-12</v>
+        <v>6.83139750894978e-12</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>6.426499659752238e-12</v>
+        <v>6.372749083312614e-12</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>5.944575952205994e-12</v>
+        <v>5.890922962169975e-12</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>5.449521556198076e-12</v>
+        <v>5.395907778204743e-12</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>4.951277426187567e-12</v>
+        <v>4.897692164100505e-12</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>4.459784516633316e-12</v>
+        <v>4.406264752540608e-12</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>3.984983781994173e-12</v>
+        <v>3.931614176208406e-12</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.536816176728994e-12</v>
+        <v>3.483729067787254e-12</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>3.125222655296627e-12</v>
+        <v>3.072598059960501e-12</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.759423474687801e-12</v>
+        <v>2.707474706582355e-12</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>2.43851628999534e-12</v>
+        <v>2.387287965292748e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>2.154131245150897e-12</v>
+        <v>2.103350270011498e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.897724257558483e-12</v>
+        <v>1.846796351478364e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.66182591037228e-12</v>
+        <v>1.609909932598016e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.445169699821346e-12</v>
+        <v>1.391606657429693e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.248709792511196e-12</v>
+        <v>1.193176427203286e-12</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.073403175114096e-12</v>
+        <v>1.015912158257896e-12</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>9.2019404655608e-13</v>
+        <v>8.61092198675726e-13</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>7.890412436077659e-13</v>
+        <v>7.288723368043382e-13</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>6.782356199221427e-13</v>
+        <v>6.175081350940231e-13</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>5.859067447264397e-13</v>
+        <v>5.250714150210663e-13</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>5.101841872479182e-13</v>
+        <v>4.49633998061786e-13</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>4.491975167137346e-13</v>
+        <v>3.892677056923958e-13</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>4.010763023511583e-13</v>
+        <v>3.420443593892217e-13</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>3.639501133874181e-13</v>
+        <v>3.060357806285496e-13</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>3.359485190497429e-13</v>
+        <v>2.793137908866653e-13</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>3.152010885653614e-13</v>
+        <v>2.599502116398541e-13</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.998373911615023e-13</v>
+        <v>2.460168643644018e-13</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.879869960653947e-13</v>
+        <v>2.355855705365943e-13</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.777794725042673e-13</v>
+        <v>2.267281516327171e-13</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>2.673443897053489e-13</v>
+        <v>2.175164291290559e-13</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>2.54811958977052e-13</v>
+        <v>2.06022914751188e-13</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>2.392007949681898e-13</v>
+        <v>1.912751704457286e-13</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>2.221810168234326e-13</v>
+        <v>1.751511751261044e-13</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>2.059152374904758e-13</v>
+        <v>1.60058347763033e-13</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.925660699170148e-13</v>
+        <v>1.484041073272319e-13</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.842285907291529e-13</v>
+        <v>1.425154817879547e-13</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.815825355833766e-13</v>
+        <v>1.430347659919219e-13</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.839649658844127e-13</v>
+        <v>1.490060195667289e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.906599527166884e-13</v>
+        <v>1.594102257861451e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>2.009515671646419e-13</v>
+        <v>1.732283679239566e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>2.141238803127024e-13</v>
+        <v>1.89441429253935e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>2.294609632453014e-13</v>
+        <v>2.070303930498558e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>2.462468870468704e-13</v>
+        <v>2.249762425854947e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>2.637657228018408e-13</v>
+        <v>2.422599611346272e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.813016616738534e-13</v>
+        <v>2.578627245547843e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.984022285328345e-13</v>
+        <v>2.711880448790823e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>3.15436650278856e-13</v>
+        <v>2.829572847788186e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>3.329339792397442e-13</v>
+        <v>2.941481359037232e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>3.514232677433256e-13</v>
+        <v>3.057382899035266e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>3.714335681174265e-13</v>
+        <v>3.187054384279588e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>3.934939326898731e-13</v>
+        <v>3.340272731267505e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>4.181334137884918e-13</v>
+        <v>3.526814856496317e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>4.458810637411092e-13</v>
+        <v>3.756457676463328e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>4.772659348755515e-13</v>
+        <v>4.03897810766584e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>5.129143293378741e-13</v>
+        <v>4.384420359796758e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>5.540990660657179e-13</v>
+        <v>4.80460560771334e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>6.023567055037602e-13</v>
+        <v>5.312079925419314e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>6.592245860952243e-13</v>
+        <v>5.919391525263969e-13</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>7.26240046283298e-13</v>
+        <v>6.639088619596219e-13</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>8.049404245112693e-13</v>
+        <v>7.483719420766053e-13</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>8.968630592223311e-13</v>
+        <v>8.465832141122437e-13</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.003545288859707e-12</v>
+        <v>9.597974993014663e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.126524451866619e-12</v>
+        <v>1.089269618879202e-12</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.267337886686292e-12</v>
+        <v>1.236254394080382e-12</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.427522931761948e-12</v>
+        <v>1.402006646139932e-12</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.608616925536811e-12</v>
+        <v>1.587781196292784e-12</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.812157206454104e-12</v>
+        <v>1.794832865773866e-12</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>2.039679758949799e-12</v>
+        <v>2.024415208105004e-12</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>2.290847121243803e-12</v>
+        <v>2.276027729836755e-12</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.559730394830436e-12</v>
+        <v>2.543934856539265e-12</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.8393621206654e-12</v>
+        <v>2.821428643211473e-12</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>3.122774839704402e-12</v>
+        <v>3.101801144852322e-12</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>3.403001092903146e-12</v>
+        <v>3.378344416460752e-12</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.673073421217337e-12</v>
+        <v>3.644350513035705e-12</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.926024365602677e-12</v>
+        <v>3.893111489576122e-12</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>4.154886467014771e-12</v>
+        <v>4.117919401080843e-12</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>4.352692266409544e-12</v>
+        <v>4.312066302549028e-12</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>4.512555620625035e-12</v>
+        <v>4.468922532768952e-12</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>4.631130630436288e-12</v>
+        <v>4.585266666443051e-12</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>4.709902479525399e-12</v>
+        <v>4.662528220570712e-12</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.750703681969756e-12</v>
+        <v>4.702471091349014e-12</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.755366751846752e-12</v>
+        <v>4.706859174975042e-12</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.725724203233771e-12</v>
+        <v>4.677456367645874e-12</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>4.663608550208204e-12</v>
+        <v>4.616026565558595e-12</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>4.570852306847442e-12</v>
+        <v>4.524333664910285e-12</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>4.449287987228869e-12</v>
+        <v>4.404141561898027e-12</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>4.300749101052083e-12</v>
+        <v>4.25721515218081e-12</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>4.127701851682858e-12</v>
+        <v>4.08595446512359e-12</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.934328792297164e-12</v>
+        <v>3.894482499158234e-12</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>3.725100719801922e-12</v>
+        <v>3.687211608085326e-12</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>3.50448843110406e-12</v>
+        <v>3.468554145705448e-12</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>3.276962723110502e-12</v>
+        <v>3.242922465819188e-12</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>3.046994392728172e-12</v>
+        <v>3.014728922227126e-12</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.819054236863994e-12</v>
+        <v>2.788385868729847e-12</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>2.597613052424895e-12</v>
+        <v>2.568305659127937e-12</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.387141636317896e-12</v>
+        <v>2.358900647222075e-12</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>2.191511834309413e-12</v>
+        <v>2.163996639664325e-12</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>2.011165116252439e-12</v>
+        <v>1.984060108639753e-12</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.845323831147325e-12</v>
+        <v>1.81836365289125e-12</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.69320886511447e-12</v>
+        <v>1.666178438577296e-12</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.55404110427427e-12</v>
+        <v>1.526775631856372e-12</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.427041434747125e-12</v>
+        <v>1.399426398886958e-12</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.311430742653431e-12</v>
+        <v>1.283401905827535e-12</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.206429914113588e-12</v>
+        <v>1.177973318836582e-12</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.11125983524799e-12</v>
+        <v>1.082411804072581e-12</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.025146391245474e-12</v>
+        <v>9.959926866380833e-13</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>9.474670796672466e-13</v>
+        <v>9.181174246112942e-13</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>8.777746779115167e-13</v>
+        <v>8.483332990469092e-13</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>8.156317271820302e-13</v>
+        <v>7.861957139372628e-13</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>7.60600768682531e-13</v>
+        <v>7.312600732746897e-13</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>7.122443436167647e-13</v>
+        <v>6.830817810515237e-13</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.701249931884763e-13</v>
+        <v>6.412162412600998e-13</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>6.33805258601427e-13</v>
+        <v>6.052188578927683e-13</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>6.028476810593268e-13</v>
+        <v>5.746450349418288e-13</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>5.768148017659398e-13</v>
+        <v>5.490501763996347e-13</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>5.552691619250111e-13</v>
+        <v>5.279896862585204e-13</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.377733027402856e-13</v>
+        <v>5.110189685108203e-13</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.238897654155083e-13</v>
+        <v>4.976934271488686e-13</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>5.131810911544243e-13</v>
+        <v>4.875684661650002e-13</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.052098211607788e-13</v>
+        <v>4.801994895515492e-13</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.995384966383167e-13</v>
+        <v>4.751419013008502e-13</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.957296587907829e-13</v>
+        <v>4.719511054052373e-13</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>4.933458488219228e-13</v>
+        <v>4.701825058570452e-13</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>4.919496079354812e-13</v>
+        <v>4.693915066486082e-13</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>4.911034773352028e-13</v>
+        <v>4.691335117722608e-13</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.903699982248335e-13</v>
+        <v>4.689639252203375e-13</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.893117118081176e-13</v>
+        <v>4.684381509851724e-13</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.874911592888004e-13</v>
+        <v>4.671115930591001e-13</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.844708818706269e-13</v>
+        <v>4.645396554344552e-13</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.798134207573422e-13</v>
+        <v>4.60277742103572e-13</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.730813171526914e-13</v>
+        <v>4.538812570587848e-13</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.638371122604193e-13</v>
+        <v>4.449056042924279e-13</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.516433472842777e-13</v>
+        <v>4.329061877968427e-13</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.360688773131613e-13</v>
+        <v>4.174448769643161e-13</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.170982531496055e-13</v>
+        <v>3.985092123837796e-13</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.953824942833728e-13</v>
+        <v>3.767691966333304e-13</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.716326189753901e-13</v>
+        <v>3.52956270857499e-13</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.465596454865842e-13</v>
+        <v>3.278018762008158e-13</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.208745920778819e-13</v>
+        <v>3.020374538078115e-13</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.9528847701021e-13</v>
+        <v>2.763944448230165e-13</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.705123185444951e-13</v>
+        <v>2.516042903909612e-13</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.472571349416639e-13</v>
+        <v>2.283984316561763e-13</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.262339444626434e-13</v>
+        <v>2.075083097631922e-13</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.081537653683601e-13</v>
+        <v>1.896653658565394e-13</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.93727615919741e-13</v>
+        <v>1.756010410807484e-13</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.836665143777127e-13</v>
+        <v>1.660467765803498e-13</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.78681479003202e-13</v>
+        <v>1.61734013499874e-13</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.794763705676582e-13</v>
+        <v>1.633867869401142e-13</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.862253687335716e-13</v>
+        <v>1.711810569439597e-13</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.982181520163799e-13</v>
+        <v>1.843775668150441e-13</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.146603750599529e-13</v>
+        <v>2.021501181339612e-13</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.347576925081434e-13</v>
+        <v>2.236725124812864e-13</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.577157590048091e-13</v>
+        <v>2.481185514376003e-13</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.827402291938076e-13</v>
+        <v>2.746620365834838e-13</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.090367577189963e-13</v>
+        <v>3.024767694995172e-13</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.358109992242329e-13</v>
+        <v>3.307365517662812e-13</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.62268608353375e-13</v>
+        <v>3.586151849643566e-13</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>3.876152397502802e-13</v>
+        <v>3.85286470674324e-13</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>4.110565480588059e-13</v>
+        <v>4.099242104767638e-13</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>4.317981879228098e-13</v>
+        <v>4.317022059522567e-13</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>4.490458139861495e-13</v>
+        <v>4.497942586813835e-13</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>4.620254701462802e-13</v>
+        <v>4.633954685224742e-13</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>4.704862646845228e-13</v>
+        <v>4.722473197551966e-13</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>4.747323246583241e-13</v>
+        <v>4.766710601112501e-13</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>4.750945643023825e-13</v>
+        <v>4.770159187655244e-13</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>4.719038978513959e-13</v>
+        <v>4.736311248929088e-13</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>4.654912395400618e-13</v>
+        <v>4.668659076682924e-13</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>4.561875036030791e-13</v>
+        <v>4.570694962665649e-13</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>4.443236042751455e-13</v>
+        <v>4.445911198626155e-13</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>4.302304557909591e-13</v>
+        <v>4.297800076313336e-13</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>4.142389723852179e-13</v>
+        <v>4.129853887476085e-13</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>3.966800682926201e-13</v>
+        <v>3.945564923863296e-13</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>3.778846577478636e-13</v>
+        <v>3.748425477223863e-13</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>3.581836549856463e-13</v>
+        <v>3.541927839306679e-13</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>3.379079742406667e-13</v>
+        <v>3.329564301860636e-13</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>3.173885297476226e-13</v>
+        <v>3.114827156634631e-13</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>2.969562357412318e-13</v>
+        <v>2.90120869537776e-13</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>2.769420064561333e-13</v>
+        <v>2.692201209838303e-13</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.576767561271024e-13</v>
+        <v>2.491296991765957e-13</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.394913989887799e-13</v>
+        <v>2.301988332909019e-13</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.226939557047891e-13</v>
+        <v>2.127524953538409e-13</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.073535800805751e-13</v>
+        <v>1.968625632525049e-13</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.933973510573941e-13</v>
+        <v>1.824503778097752e-13</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.807504659646759e-13</v>
+        <v>1.694352861649782e-13</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.693381221318499e-13</v>
+        <v>1.577366354574398e-13</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.59085516888346e-13</v>
+        <v>1.472737728264861e-13</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.499178475635938e-13</v>
+        <v>1.379660454114433e-13</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.417603114870228e-13</v>
+        <v>1.297328003516372e-13</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.345381059880629e-13</v>
+        <v>1.224933847863941e-13</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.281764283961435e-13</v>
+        <v>1.161671458550401e-13</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.226004760406945e-13</v>
+        <v>1.106734306969012e-13</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.177354462511454e-13</v>
+        <v>1.059315864513035e-13</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.135065363569259e-13</v>
+        <v>1.01860960257573e-13</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.098389436874656e-13</v>
+        <v>9.838089925503593e-14</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.066578655721943e-13</v>
+        <v>9.541075058301828e-14</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.038884993405415e-13</v>
+        <v>9.286986138084613e-14</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.01456042321937e-13</v>
+        <v>9.067757878784559e-14</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>9.928569184581036e-14</v>
+        <v>8.875324994334276e-14</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>9.730273709551151e-14</v>
+        <v>8.701632098342143e-14</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>9.545271320465902e-14</v>
+        <v>8.540805838050707e-14</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>9.372671230098413e-14</v>
+        <v>8.391882825021606e-14</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>9.212205088003197e-14</v>
+        <v>8.254570510156736e-14</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>9.063604543734744e-14</v>
+        <v>8.128576344357988e-14</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>8.926601246847563e-14</v>
+        <v>8.013607778527249e-14</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>8.800926846896154e-14</v>
+        <v>7.90937226356641e-14</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>8.686312993435019e-14</v>
+        <v>7.815577250377364e-14</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>8.582491336018656e-14</v>
+        <v>7.731930189861998e-14</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>8.48919352420157e-14</v>
+        <v>7.658138532922207e-14</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>8.406151207538262e-14</v>
+        <v>7.593909730459877e-14</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>8.333096035583231e-14</v>
+        <v>7.538951233376899e-14</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>8.26975965789098e-14</v>
+        <v>7.492970492575165e-14</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>8.215873724016008e-14</v>
+        <v>7.455674958956562e-14</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>8.17116988351282e-14</v>
+        <v>7.426772083422984e-14</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>8.135379785935947e-14</v>
+        <v>7.405969316876336e-14</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>8.108235080839795e-14</v>
+        <v>7.392974110218461e-14</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>8.089467417778977e-14</v>
+        <v>7.387493914351298e-14</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>8.078808446307922e-14</v>
+        <v>7.389236180176711e-14</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>8.075989815981159e-14</v>
+        <v>7.397908358596597e-14</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>8.080743176353184e-14</v>
+        <v>7.413217900512851e-14</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>8.092800176978504e-14</v>
+        <v>7.434872256827365e-14</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>8.111892467411617e-14</v>
+        <v>7.462578878442021e-14</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>8.137751697207021e-14</v>
+        <v>7.496045216258715e-14</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>8.170109515919226e-14</v>
+        <v>7.534978721179337e-14</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>8.208697573102727e-14</v>
+        <v>7.579086844105775e-14</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>8.253247518312023e-14</v>
+        <v>7.62807703593992e-14</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>8.303491001101622e-14</v>
+        <v>7.681656747583666e-14</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>8.359159671026022e-14</v>
+        <v>7.739533429938898e-14</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>8.419985177639725e-14</v>
+        <v>7.801414533907512e-14</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>8.485699170497234e-14</v>
+        <v>7.867007510391393e-14</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>8.556033299153046e-14</v>
+        <v>7.936019810292431e-14</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>8.630719213161665e-14</v>
+        <v>8.008158884512523e-14</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>8.709488562077592e-14</v>
+        <v>8.083132183953554e-14</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>8.792072995455328e-14</v>
+        <v>8.160647159517414e-14</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>8.878204162849378e-14</v>
+        <v>8.240411262105998e-14</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>8.967613713814239e-14</v>
+        <v>8.32213194262119e-14</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>9.060033297904412e-14</v>
+        <v>8.405516651964885e-14</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>9.155617113715766e-14</v>
+        <v>8.490721225203415e-14</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>9.258455883716054e-14</v>
+        <v>8.58207870476682e-14</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>9.374782406832909e-14</v>
+        <v>8.686195178506178e-14</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>9.51085092743221e-14</v>
+        <v>8.809699490908994e-14</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>9.672915689879826e-14</v>
+        <v>8.959220486462773e-14</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>9.867230938541636e-14</v>
+        <v>9.141387009655025e-14</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.010005091778351e-13</v>
+        <v>9.362827904973249e-14</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.037762987197133e-13</v>
+        <v>9.630172016904957e-14</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.070622204547097e-13</v>
+        <v>9.950048189937649e-14</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.109208168264829e-13</v>
+        <v>1.032908526855884e-13</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.154146302786919e-13</v>
+        <v>1.077391209725602e-13</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.206062032549952e-13</v>
+        <v>1.129115752051671e-13</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.265580781990517e-13</v>
+        <v>1.188745038282841e-13</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.333327975545201e-13</v>
+        <v>1.256941952867863e-13</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.409929037650513e-13</v>
+        <v>1.334369380255407e-13</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.496009392743276e-13</v>
+        <v>1.421690204894463e-13</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.592194465259744e-13</v>
+        <v>1.519567311233443e-13</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.699109679636769e-13</v>
+        <v>1.628663583721366e-13</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.817380460310849e-13</v>
+        <v>1.749641906806892e-13</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.947632231718573e-13</v>
+        <v>1.883165164938774e-13</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>2.090490418296527e-13</v>
+        <v>2.02989624256576e-13</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>2.2465804444813e-13</v>
+        <v>2.190498024136602e-13</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>2.416527734709478e-13</v>
+        <v>2.365633394100049e-13</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>2.600952649969009e-13</v>
+        <v>2.555959917985533e-13</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.799153051344663e-13</v>
+        <v>2.76074593615496e-13</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>3.007343282856344e-13</v>
+        <v>2.976020696475244e-13</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>3.221299071588846e-13</v>
+        <v>3.197352699947694e-13</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>3.436796144626969e-13</v>
+        <v>3.420310447573621e-13</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>3.649610229055508e-13</v>
+        <v>3.640462440354332e-13</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>3.855517051959259e-13</v>
+        <v>3.853377179291135e-13</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>4.050292340423018e-13</v>
+        <v>4.054623165385342e-13</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>4.229711821531583e-13</v>
+        <v>4.239768899638262e-13</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>4.389551222369751e-13</v>
+        <v>4.404382883051202e-13</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>4.525586270022318e-13</v>
+        <v>4.544033616625473e-13</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>4.633592691574079e-13</v>
+        <v>4.654289601362383e-13</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>4.709346214109831e-13</v>
+        <v>4.73071933826324e-13</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>4.748622564714374e-13</v>
+        <v>4.768891328329356e-13</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>4.747275103299136e-13</v>
+        <v>4.764456432150046e-13</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>4.705135212819105e-13</v>
+        <v>4.717285739734934e-13</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>4.627838110476183e-13</v>
+        <v>4.633407548272002e-13</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>4.521478220581089e-13</v>
+        <v>4.519337321395833e-13</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>4.392149967444542e-13</v>
+        <v>4.381590522741012e-13</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>4.245947775377258e-13</v>
+        <v>4.226682615942125e-13</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>4.088966068689956e-13</v>
+        <v>4.061129064633754e-13</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>3.927299271693354e-13</v>
+        <v>3.891445332450486e-13</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>3.76704180869817e-13</v>
+        <v>3.724146883026904e-13</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>3.614288104015124e-13</v>
+        <v>3.565749179997594e-13</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>3.474468445816047e-13</v>
+        <v>3.422048672532927e-13</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>3.348491248776763e-13</v>
+        <v>3.293946288751786e-13</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>3.235380152956793e-13</v>
+        <v>3.180302441084244e-13</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>3.134152558752767e-13</v>
+        <v>3.07997078670703e-13</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>3.043825866561308e-13</v>
+        <v>2.99180498279687e-13</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>2.963417476779046e-13</v>
+        <v>2.914658686530495e-13</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>2.891944789802671e-13</v>
+        <v>2.847385555084694e-13</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>2.828425206028674e-13</v>
+        <v>2.788839245636064e-13</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>2.771876125853752e-13</v>
+        <v>2.737873415361403e-13</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>2.721314949674536e-13</v>
+        <v>2.69334172143744e-13</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>2.67575907788765e-13</v>
+        <v>2.654097821040905e-13</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>2.634225910889722e-13</v>
+        <v>2.618995371348524e-13</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>2.595732849077377e-13</v>
+        <v>2.586888029537026e-13</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>2.559297292847244e-13</v>
+        <v>2.55662945278314e-13</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>2.523936642595949e-13</v>
+        <v>2.527073298263592e-13</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>2.488668298720119e-13</v>
+        <v>2.497073223155113e-13</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>2.45250966161638e-13</v>
+        <v>2.46548288463443e-13</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>2.414478131681358e-13</v>
+        <v>2.431155939878271e-13</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>2.373611568298248e-13</v>
+        <v>2.392969331211131e-13</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>2.329659900384024e-13</v>
+        <v>2.350610434273057e-13</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>2.283252577018901e-13</v>
+        <v>2.304767639925449e-13</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>2.235073465381423e-13</v>
+        <v>2.256191274329237e-13</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>2.185806432650136e-13</v>
+        <v>2.205631663645348e-13</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>2.136135346003588e-13</v>
+        <v>2.15383913403471e-13</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>2.086744072620323e-13</v>
+        <v>2.101564011658251e-13</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>2.038316479678887e-13</v>
+        <v>2.049556622676899e-13</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>1.991536434357827e-13</v>
+        <v>1.998567293251582e-13</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.947087803835689e-13</v>
+        <v>1.949346349543228e-13</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.905654455291017e-13</v>
+        <v>1.902644117712765e-13</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.867920255902359e-13</v>
+        <v>1.85921092392112e-13</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.834428322780786e-13</v>
+        <v>1.819666807250306e-13</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.805019966970349e-13</v>
+        <v>1.783982171126163e-13</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.77931819388113e-13</v>
+        <v>1.751925341605255e-13</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.756945939477665e-13</v>
+        <v>1.723264580460997e-13</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.737526139724487e-13</v>
+        <v>1.697768149466801e-13</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.72068173058613e-13</v>
+        <v>1.67520431039608e-13</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.706035648027128e-13</v>
+        <v>1.65534132502225e-13</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>1.693219621973257e-13</v>
+        <v>1.637951385065939e-13</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.682030228410804e-13</v>
+        <v>1.622880350563888e-13</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.672410446495624e-13</v>
+        <v>1.610039507896312e-13</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.664308344481517e-13</v>
+        <v>1.599342417718434e-13</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.657671990622277e-13</v>
+        <v>1.59070264068548e-13</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.652449453171703e-13</v>
+        <v>1.584033737452674e-13</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.648588800383597e-13</v>
+        <v>1.579249268675243e-13</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>1.646038100511747e-13</v>
+        <v>1.576262795008404e-13</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.644745421809956e-13</v>
+        <v>1.574987877107385e-13</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.64465883253202e-13</v>
+        <v>1.575338075627412e-13</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.645726400931739e-13</v>
+        <v>1.577226951223709e-13</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.647896195262908e-13</v>
+        <v>1.5805680645515e-13</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.651116283779326e-13</v>
+        <v>1.585274976266009e-13</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.65533473473479e-13</v>
+        <v>1.591261247022461e-13</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.660499616383098e-13</v>
+        <v>1.598440437476081e-13</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.666558996978047e-13</v>
+        <v>1.606726108282092e-13</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.673460944773433e-13</v>
+        <v>1.616031820095719e-13</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.681153528023056e-13</v>
+        <v>1.626271133572188e-13</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>1.689584814980712e-13</v>
+        <v>1.63735760936672e-13</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>1.6987028739002e-13</v>
+        <v>1.649204808134543e-13</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>1.708455773035315e-13</v>
+        <v>1.661726290530878e-13</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>1.718791580639856e-13</v>
+        <v>1.674835617210952e-13</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>1.729658364967621e-13</v>
+        <v>1.688446348829989e-13</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>1.741004194272406e-13</v>
+        <v>1.702472046043212e-13</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>1.752777136808009e-13</v>
+        <v>1.716826269505846e-13</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>1.764925260828229e-13</v>
+        <v>1.731422579873117e-13</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>1.777396634586861e-13</v>
+        <v>1.746174537800246e-13</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>1.790139326337705e-13</v>
+        <v>1.760995703942462e-13</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>1.803107296854817e-13</v>
+        <v>1.775807366555299e-13</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>1.816339746691794e-13</v>
+        <v>1.790642599500103e-13</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>1.829940027276775e-13</v>
+        <v>1.805618605719889e-13</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>1.844013057673266e-13</v>
+        <v>1.82085464399439e-13</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>1.858663756944773e-13</v>
+        <v>1.836469973103344e-13</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>1.8739970441548e-13</v>
+        <v>1.852583851826483e-13</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>1.890117838366851e-13</v>
+        <v>1.869315538943543e-13</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>1.907131058644432e-13</v>
+        <v>1.886784293234256e-13</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>1.925141624051046e-13</v>
+        <v>1.90510937347836e-13</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>1.944254453650198e-13</v>
+        <v>1.924410038455586e-13</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>1.964574466505394e-13</v>
+        <v>1.944805546945671e-13</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>1.986206581680137e-13</v>
+        <v>1.966415157728348e-13</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>2.009255718237933e-13</v>
+        <v>1.989358129583353e-13</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>2.033826795242285e-13</v>
+        <v>2.013753721290418e-13</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>2.0600247317567e-13</v>
+        <v>2.03972119162928e-13</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>2.087954446844653e-13</v>
+        <v>2.067379799379646e-13</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>2.117720859569703e-13</v>
+        <v>2.096848803321302e-13</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>2.149428888995329e-13</v>
+        <v>2.128247462233957e-13</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>2.183183454185034e-13</v>
+        <v>2.161695034897347e-13</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.219089474202325e-13</v>
+        <v>2.197310780091204e-13</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>2.257251868110704e-13</v>
+        <v>2.235213956595264e-13</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>2.29777555497368e-13</v>
+        <v>2.275523823189263e-13</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>2.340765453854753e-13</v>
+        <v>2.318359638652933e-13</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>2.38632648381743e-13</v>
+        <v>2.363840661766009e-13</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>2.434563563925215e-13</v>
+        <v>2.412086151308226e-13</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>2.485581613241613e-13</v>
+        <v>2.46321536605932e-13</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>2.539485550830128e-13</v>
+        <v>2.517347564799022e-13</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>2.596380295754266e-13</v>
+        <v>2.574602006307069e-13</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>2.65637076707753e-13</v>
+        <v>2.635097949363195e-13</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>2.719561883863425e-13</v>
+        <v>2.698954652747133e-13</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>2.786058565175458e-13</v>
+        <v>2.766291375238621e-13</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>2.85596573007713e-13</v>
+        <v>2.83722737561739e-13</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>2.929388297631948e-13</v>
+        <v>2.911881912663177e-13</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.006431186903417e-13</v>
+        <v>2.990374245155714e-13</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>3.087199316955039e-13</v>
+        <v>3.072823631874737e-13</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>3.171797606850322e-13</v>
+        <v>3.159349331599981e-13</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>3.260330975652768e-13</v>
+        <v>3.25007060311118e-13</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>3.352903199562297e-13</v>
+        <v>3.345105217014822e-13</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>3.449546921754813e-13</v>
+        <v>3.444478318459357e-13</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>3.550183030751e-13</v>
+        <v>3.548069531911776e-13</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>3.654722624472861e-13</v>
+        <v>3.655745733067326e-13</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>3.763076800842406e-13</v>
+        <v>3.767373797621249e-13</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>3.87515665778164e-13</v>
+        <v>3.882820601268794e-13</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>3.990873293212572e-13</v>
+        <v>4.001953019705206e-13</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>4.110137805057208e-13</v>
+        <v>4.124637928625732e-13</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>4.232861291237554e-13</v>
+        <v>4.250742203725616e-13</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>4.358954849675619e-13</v>
+        <v>4.380132720700107e-13</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>4.488329578293412e-13</v>
+        <v>4.512676355244451e-13</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>4.620896575012933e-13</v>
+        <v>4.648239983053891e-13</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>4.756566937756198e-13</v>
+        <v>4.786690479823674e-13</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>4.895251764445208e-13</v>
+        <v>4.927894721249047e-13</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>5.036862153001972e-13</v>
+        <v>5.071719583025257e-13</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>5.181309201348356e-13</v>
+        <v>5.218031940847407e-13</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>5.328504007406646e-13</v>
+        <v>5.366698670411023e-13</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>5.478357669098713e-13</v>
+        <v>5.517586647411214e-13</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>5.630781284346561e-13</v>
+        <v>5.670562747543226e-13</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>5.785694151687786e-13</v>
+        <v>5.825503780579586e-13</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>5.943251484969227e-13</v>
+        <v>5.98257233982814e-13</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>6.103874132377844e-13</v>
+        <v>6.142252803228119e-13</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>6.267997112764345e-13</v>
+        <v>6.305046714804301e-13</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>6.436055444979427e-13</v>
+        <v>6.471455618581461e-13</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>6.608484147873799e-13</v>
+        <v>6.641981058584385e-13</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>6.785718240298158e-13</v>
+        <v>6.817124578837845e-13</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>6.96819274110321e-13</v>
+        <v>6.997387723366625e-13</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>7.156342669139656e-13</v>
+        <v>7.1832720361955e-13</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>7.350603043258197e-13</v>
+        <v>7.375279061349251e-13</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>7.551408882309542e-13</v>
+        <v>7.573910342852655e-13</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>7.759195205144386e-13</v>
+        <v>7.779667424730493e-13</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>7.974397030613436e-13</v>
+        <v>7.993051851007544e-13</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>8.197449377567391e-13</v>
+        <v>8.214565165708582e-13</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>8.42878726485696e-13</v>
+        <v>8.444708912858391e-13</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>8.668818126805749e-13</v>
+        <v>8.683955879586646e-13</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.916947138157468e-13</v>
+        <v>8.931733996480323e-13</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>9.171316658825199e-13</v>
+        <v>9.186154708492905e-13</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>9.429988479254636e-13</v>
+        <v>9.4452454668333e-13</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>9.691024389891476e-13</v>
+        <v>9.707033722710435e-13</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>9.952486181181419e-13</v>
+        <v>9.969546927333225e-13</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.021243564357017e-12</v>
+        <v>1.023081253191059e-12</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>1.046893456750342e-12</v>
+        <v>1.048885798765145e-12</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.072004474342686e-12</v>
+        <v>1.074171074576472e-12</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.096382796178621e-12</v>
+        <v>1.098739825745933e-12</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.119837335926454e-12</v>
+        <v>1.122397612455233e-12</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.142274944247953e-12</v>
+        <v>1.145050812628828e-12</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.163725053741222e-12</v>
+        <v>1.16673199179084e-12</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.184224838591204e-12</v>
+        <v>1.187481684765684e-12</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.203811472982848e-12</v>
+        <v>1.207340426377774e-12</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.222522131101095e-12</v>
+        <v>1.226348751451524e-12</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.240393987130892e-12</v>
+        <v>1.244547194811349e-12</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.257464215257184e-12</v>
+        <v>1.261976291281665e-12</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.2737699896649e-12</v>
+        <v>1.278676575686869e-12</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.289348484539018e-12</v>
+        <v>1.294688582851409e-12</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.304236874064465e-12</v>
+        <v>1.310052847599682e-12</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.318472332426187e-12</v>
+        <v>1.324809904756103e-12</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.33209203380913e-12</v>
+        <v>1.339000289145088e-12</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.345109360700361e-12</v>
+        <v>1.352636359900448e-12</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.357406606724687e-12</v>
+        <v>1.365575232119043e-12</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.368821159587986e-12</v>
+        <v>1.377620840360367e-12</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.379190367262025e-12</v>
+        <v>1.388577072128169e-12</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.38835157771857e-12</v>
+        <v>1.398247814926197e-12</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.396142138929385e-12</v>
+        <v>1.406436956258203e-12</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.402399398866238e-12</v>
+        <v>1.412948383627935e-12</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.406960705500894e-12</v>
+        <v>1.417585984539142e-12</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.409663406805119e-12</v>
+        <v>1.420153646495574e-12</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.410344850750679e-12</v>
+        <v>1.420455257000981e-12</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.40884238367458e-12</v>
+        <v>1.418294707339681e-12</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.404982145635931e-12</v>
+        <v>1.413501804608145e-12</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.398552312668809e-12</v>
+        <v>1.405994152096211e-12</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.389333029232773e-12</v>
+        <v>1.395707927037569e-12</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.377104439787383e-12</v>
+        <v>1.382579306665906e-12</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.3616466887922e-12</v>
+        <v>1.366544468214911e-12</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.342757647524448e-12</v>
+        <v>1.347552340954691e-12</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.320758717831392e-12</v>
+        <v>1.325928463258057e-12</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.296568616652879e-12</v>
+        <v>1.302428060537946e-12</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.271138625116622e-12</v>
+        <v>1.27782978371532e-12</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.245420024350337e-12</v>
+        <v>1.252912283711144e-12</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.220240751848553e-12</v>
+        <v>1.228352056808279e-12</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.195699999007928e-12</v>
+        <v>1.204222043256941e-12</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.171630274888327e-12</v>
+        <v>1.1803743138802e-12</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.14786369010315e-12</v>
+        <v>1.156660609503109e-12</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.124232355265795e-12</v>
+        <v>1.132932670950718e-12</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.100568380989663e-12</v>
+        <v>1.109042239048082e-12</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.076703877888151e-12</v>
+        <v>1.084841054620251e-12</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.052470956574661e-12</v>
+        <v>1.060180858492277e-12</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.027701727662591e-12</v>
+        <v>1.034913391489212e-12</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>1.002228301765364e-12</v>
+        <v>1.008890394436134e-12</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>9.758827894963056e-13</v>
+        <v>9.819636081580184e-13</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>9.485296777004816e-13</v>
+        <v>9.540165983735346e-13</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>9.203128848351888e-13</v>
+        <v>9.252076039450017e-13</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>8.915192120106871e-13</v>
+        <v>8.958353132248734e-13</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>8.624366118152761e-13</v>
+        <v>8.661995464350031e-13</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>8.333530368373665e-13</v>
+        <v>8.366001237973576e-13</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>8.045564396653404e-13</v>
+        <v>8.073368655338743e-13</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>7.763347728875812e-13</v>
+        <v>7.787095918664918e-13</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>7.489759890924711e-13</v>
+        <v>7.510181230171477e-13</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>7.227680408683933e-13</v>
+        <v>7.245622792077806e-13</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>6.979940950856885e-13</v>
+        <v>6.9963678291047e-13</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>6.747608903946964e-13</v>
+        <v>6.763484251467565e-13</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>6.529513920974722e-13</v>
+        <v>6.545656334273147e-13</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>6.324341426942346e-13</v>
+        <v>6.341414720852622e-13</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>6.130776846852032e-13</v>
+        <v>6.149290054537171e-13</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>5.947505605705963e-13</v>
+        <v>5.967812978657974e-13</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>5.773213128506333e-13</v>
+        <v>5.795514136546205e-13</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>5.606584840255329e-13</v>
+        <v>5.630924171533049e-13</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>5.446306165955143e-13</v>
+        <v>5.472573726949677e-13</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>5.291062530607963e-13</v>
+        <v>5.318993446127274e-13</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>5.139539359215979e-13</v>
+        <v>5.168713972397013e-13</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>4.990422076781382e-13</v>
+        <v>5.020265949090077e-13</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>4.842396108306359e-13</v>
+        <v>4.872180019537641e-13</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>4.694146878793103e-13</v>
+        <v>4.722986827070887e-13</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>4.544361293644877e-13</v>
+        <v>4.571218652902085e-13</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>4.393113678307787e-13</v>
+        <v>4.416942787300936e-13</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>4.244440041775841e-13</v>
+        <v>4.264609634475876e-13</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>4.103078920333261e-13</v>
+        <v>4.119446858383853e-13</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>3.973768850264265e-13</v>
+        <v>3.986682122981806e-13</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>3.861248367853072e-13</v>
+        <v>3.871543092226677e-13</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>3.770256009383905e-13</v>
+        <v>3.77925743007541e-13</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>3.705530311140982e-13</v>
+        <v>3.715052800484945e-13</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>3.668016206426827e-13</v>
+        <v>3.679998146065804e-13</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>3.639303682452078e-13</v>
+        <v>3.653944631010597e-13</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>3.599380273447534e-13</v>
+        <v>3.614965685782267e-13</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>3.548954958755839e-13</v>
+        <v>3.563754745461208e-13</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>3.494628326101995e-13</v>
+        <v>3.507436663317323e-13</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>3.4430013742201e-13</v>
+        <v>3.453136741287715e-13</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>3.400675101844594e-13</v>
+        <v>3.407980281309852e-13</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>3.374250507709576e-13</v>
+        <v>3.379092585320836e-13</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>3.370328590549391e-13</v>
+        <v>3.373598955258035e-13</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>3.395250438223794e-13</v>
+        <v>3.398342152157831e-13</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>3.448852139821914e-13</v>
+        <v>3.45309355839095e-13</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>3.524157766524325e-13</v>
+        <v>3.530219426856586e-13</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>3.613870033867639e-13</v>
+        <v>3.621736674885251e-13</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>3.710691657388464e-13</v>
+        <v>3.719662219807453e-13</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>3.807697778767554e-13</v>
+        <v>3.816486741615587e-13</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>3.900624164161463e-13</v>
+        <v>3.908085496153542e-13</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>3.986364067826529e-13</v>
+        <v>3.991806177900024e-13</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>4.061815494185815e-13</v>
+        <v>4.065002524012723e-13</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>4.123876447662394e-13</v>
+        <v>4.125028271649335e-13</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>4.169460144413516e-13</v>
+        <v>4.169249514124971e-13</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>4.19667620487141e-13</v>
+        <v>4.196004157657998e-13</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>4.205673324815624e-13</v>
+        <v>4.205286404565585e-13</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>4.196799114823959e-13</v>
+        <v>4.197252031284648e-13</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>4.170401185474215e-13</v>
+        <v>4.172056814252099e-13</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>4.126827147344191e-13</v>
+        <v>4.129856529904855e-13</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>4.06647987316229e-13</v>
+        <v>4.070869115747768e-13</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>3.990594103415439e-13</v>
+        <v>3.996248227271571e-13</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>3.901047509801952e-13</v>
+        <v>3.907870714599797e-13</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>3.79973445086073e-13</v>
+        <v>3.807632197878871e-13</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>3.688549285130671e-13</v>
+        <v>3.697428297255212e-13</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>3.569386371150677e-13</v>
+        <v>3.579154632875241e-13</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>3.444140067459651e-13</v>
+        <v>3.454706824885385e-13</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>3.314704732596491e-13</v>
+        <v>3.325980493432062e-13</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>3.182974725100096e-13</v>
+        <v>3.194871258661695e-13</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>3.050840247504299e-13</v>
+        <v>3.063270586208054e-13</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>2.919712925818567e-13</v>
+        <v>2.932591537037306e-13</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>2.790087710618391e-13</v>
+        <v>2.803330825859639e-13</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>2.662355995828639e-13</v>
+        <v>2.675881647921793e-13</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>2.536909175374179e-13</v>
+        <v>2.550637198470516e-13</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>2.414138643179882e-13</v>
+        <v>2.427990672752548e-13</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>2.294435793170615e-13</v>
+        <v>2.308335266014634e-13</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>2.178192019271359e-13</v>
+        <v>2.192064173503628e-13</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>2.06579871540665e-13</v>
+        <v>2.079570590465941e-13</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>1.957647275501791e-13</v>
+        <v>1.971247712148753e-13</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>1.854129093481234e-13</v>
+        <v>1.867488733798387e-13</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>1.755635563270247e-13</v>
+        <v>1.768686850661989e-13</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>1.662558078793406e-13</v>
+        <v>1.675235257986007e-13</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.575288033975678e-13</v>
+        <v>1.587527151017284e-13</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.494216448466883e-13</v>
+        <v>1.505955355812475e-13</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>1.419556334883886e-13</v>
+        <v>1.430737109827524e-13</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>1.351058426867506e-13</v>
+        <v>1.361633652139008e-13</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.288399385559851e-13</v>
+        <v>1.298333155685705e-13</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.231255872103031e-13</v>
+        <v>1.240523793406391e-13</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.179304547639155e-13</v>
+        <v>1.187893738239841e-13</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.132222073310332e-13</v>
+        <v>1.140131163124832e-13</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.089685110258672e-13</v>
+        <v>1.09692424100014e-13</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.051370319626283e-13</v>
+        <v>1.057961144804543e-13</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.016954362555274e-13</v>
+        <v>1.022930047476814e-13</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>9.861139001877558e-14</v>
+        <v>9.915191219557312e-14</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.585255936658362e-14</v>
+        <v>9.634165411800707e-14</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>9.338661041316248e-14</v>
+        <v>9.383104780886085e-14</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>9.118120927272305e-14</v>
+        <v>9.15889105620121e-14</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>8.920613032030216e-14</v>
+        <v>8.95856800206787e-14</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>8.744748348500037e-14</v>
+        <v>8.780434887056947e-14</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>8.589900623396557e-14</v>
+        <v>8.623377210631208e-14</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>8.455447907708957e-14</v>
+        <v>8.486283780396368e-14</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>8.340768252426418e-14</v>
+        <v>8.368043403958139e-14</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>8.245239708538124e-14</v>
+        <v>8.267544888922245e-14</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>8.168240327033257e-14</v>
+        <v>8.183677042894391e-14</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>8.109148158900994e-14</v>
+        <v>8.115328673480297e-14</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>8.067341255130519e-14</v>
+        <v>8.061388588285673e-14</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>8.039991891029667e-14</v>
+        <v>8.019081383923337e-14</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>8.012667756046711e-14</v>
+        <v>7.976876242972459e-14</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>7.967133782355292e-14</v>
+        <v>7.920373248260462e-14</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>7.88515269635337e-14</v>
+        <v>7.835170818403766e-14</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>7.748490454104843e-14</v>
+        <v>7.70687034227788e-14</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>7.567963572588258e-14</v>
+        <v>7.547790427765996e-14</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>7.44444319987138e-14</v>
+        <v>7.452063221381957e-14</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>7.378071005656134e-14</v>
+        <v>7.408680336464688e-14</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>7.286991048842939e-14</v>
+        <v>7.322949000955194e-14</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>7.13217403915532e-14</v>
+        <v>7.152080550304274e-14</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>6.947213373513312e-14</v>
+        <v>6.940817539856568e-14</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>6.772419118455329e-14</v>
+        <v>6.741998043148183e-14</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>6.645787643335116e-14</v>
+        <v>6.605375732573619e-14</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>6.567139819964079e-14</v>
+        <v>6.529812336244285e-14</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>6.504977108811505e-14</v>
+        <v>6.472417520357327e-14</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>6.428987647399949e-14</v>
+        <v>6.392122372538326e-14</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>6.332322982358413e-14</v>
+        <v>6.281797057850509e-14</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>6.222769464290126e-14</v>
+        <v>6.155480521354593e-14</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>6.108331979147865e-14</v>
+        <v>6.027526739219209e-14</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>5.994506476552391e-14</v>
+        <v>5.907942193740725e-14</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>5.879932893147427e-14</v>
+        <v>5.794853243345772e-14</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>5.762090753806122e-14</v>
+        <v>5.684375480784101e-14</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>5.638459583401616e-14</v>
+        <v>5.572624498805464e-14</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>5.506518906807048e-14</v>
+        <v>5.455715890159606e-14</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>5.363748248895563e-14</v>
+        <v>5.329765247596278e-14</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>5.207627134540306e-14</v>
+        <v>5.190888163865231e-14</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>5.035635088614417e-14</v>
+        <v>5.035200231716213e-14</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>4.845251635991035e-14</v>
+        <v>4.858817043898971e-14</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>4.636456596172336e-14</v>
+        <v>4.660487061685218e-14</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>4.428602959942656e-14</v>
+        <v>4.459359147262287e-14</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>4.250089606611246e-14</v>
+        <v>4.284107694278435e-14</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>4.129366462084656e-14</v>
+        <v>4.163460849638696e-14</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>4.094883452269449e-14</v>
+        <v>4.126146760248104e-14</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>4.175085440083407e-14</v>
+        <v>4.200888558366833e-14</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>4.388195757160829e-14</v>
+        <v>4.406285445182769e-14</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>4.720778880763195e-14</v>
+        <v>4.729580061833401e-14</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>5.153288518334715e-14</v>
+        <v>5.151962628276567e-14</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>5.666178377319599e-14</v>
+        <v>5.6546233644701e-14</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>6.239902165162056e-14</v>
+        <v>6.218752490371842e-14</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>6.854913589306297e-14</v>
+        <v>6.825540225939627e-14</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>7.491666357196533e-14</v>
+        <v>7.456176791131295e-14</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>8.130614176276971e-14</v>
+        <v>8.091852405904679e-14</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>8.752315212843991e-14</v>
+        <v>8.713777242682789e-14</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>9.338498509527258e-14</v>
+        <v>9.303385120509017e-14</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>9.871628376840511e-14</v>
+        <v>9.84225030039506e-14</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>1.033418050604661e-13</v>
+        <v>1.031194921716711e-13</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>1.070863058840522e-13</v>
+        <v>1.069405830564809e-13</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>1.097755766496662e-13</v>
+        <v>1.0970260212734e-13</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>1.113515547958689e-13</v>
+        <v>1.113417395844397e-13</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>1.119771142794934e-13</v>
+        <v>1.120212410044829e-13</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>1.118398776817171e-13</v>
+        <v>1.119297860040607e-13</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>1.111274675837194e-13</v>
+        <v>1.112560541997668e-13</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>1.10026658061386e-13</v>
+        <v>1.101878753084106e-13</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>1.086614306113854e-13</v>
+        <v>1.088501832700728e-13</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>1.070509109834025e-13</v>
+        <v>1.072628839509239e-13</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>1.052042640742169e-13</v>
+        <v>1.054359059938995e-13</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>1.031306547806086e-13</v>
+        <v>1.033791780419354e-13</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>1.008392479993574e-13</v>
+        <v>1.011026287379673e-13</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>9.833920862724308e-14</v>
+        <v>9.861618672493085e-14</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>9.564129121754692e-14</v>
+        <v>9.593130429337455e-14</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>9.276940842207475e-14</v>
+        <v>9.307204545555433e-14</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>8.975397096484334e-14</v>
+        <v>9.00687024700191e-14</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>8.662543553455055e-14</v>
+        <v>8.69516116513617e-14</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>8.341425881989421e-14</v>
+        <v>8.375110931417488e-14</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>8.015089750957212e-14</v>
+        <v>8.049753177305145e-14</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>7.686580829228216e-14</v>
+        <v>7.722121534258422e-14</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>7.358944785672213e-14</v>
+        <v>7.395249633736598e-14</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>7.035227289158986e-14</v>
+        <v>7.072171107198948e-14</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>6.718474008558317e-14</v>
+        <v>6.755919586104755e-14</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>6.411730612739995e-14</v>
+        <v>6.449528701913302e-14</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>6.118042770573795e-14</v>
+        <v>6.15603208608386e-14</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>5.840314506828133e-14</v>
+        <v>5.878322605622408e-14</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>5.579479692186658e-14</v>
+        <v>5.617335208638328e-14</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>5.335028457660691e-14</v>
+        <v>5.372570069581376e-14</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>5.106417772997075e-14</v>
+        <v>5.143494407577227e-14</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>4.893104607942654e-14</v>
+        <v>4.929575441751558e-14</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>4.694545932244273e-14</v>
+        <v>4.730280391230044e-14</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>4.510198715648775e-14</v>
+        <v>4.545076475138361e-14</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>4.339519927903006e-14</v>
+        <v>4.373430912602186e-14</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>4.181966538753811e-14</v>
+        <v>4.214810922747195e-14</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>4.036995517948031e-14</v>
+        <v>4.068683724699063e-14</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>3.904063835232635e-14</v>
+        <v>3.93451653758359e-14</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>3.782628460354101e-14</v>
+        <v>3.811776580526082e-14</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>3.672146363059741e-14</v>
+        <v>3.699931072652688e-14</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>3.572074513095972e-14</v>
+        <v>3.598447233088654e-14</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>3.481869880210027e-14</v>
+        <v>3.506792280960045e-14</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>3.400989434148473e-14</v>
+        <v>3.424433435392261e-14</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>3.328890144658248e-14</v>
+        <v>3.35083791551107e-14</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>3.265028981486195e-14</v>
+        <v>3.285472940442147e-14</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>3.208862914379158e-14</v>
+        <v>3.227805729311169e-14</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>3.159848913083984e-14</v>
+        <v>3.177303501243812e-14</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>3.117443947347515e-14</v>
+        <v>3.133433475365753e-14</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>3.081104986916596e-14</v>
+        <v>3.095662870802667e-14</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>3.050289001538072e-14</v>
+        <v>3.063458906680231e-14</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>3.024452960958786e-14</v>
+        <v>3.03628880212412e-14</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>3.003053834925584e-14</v>
+        <v>3.013619776260011e-14</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>2.985548593185309e-14</v>
+        <v>2.99491904821358e-14</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>2.971394205484806e-14</v>
+        <v>2.979653837110502e-14</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>2.960047641570919e-14</v>
+        <v>2.967291362076454e-14</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>2.950965871190493e-14</v>
+        <v>2.957298842237112e-14</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>2.943605864090371e-14</v>
+        <v>2.949143496718151e-14</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>2.937424590017399e-14</v>
+        <v>2.94229254464525e-14</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>2.931879018718421e-14</v>
+        <v>2.936213205144083e-14</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>2.926426119940282e-14</v>
+        <v>2.930372697340326e-14</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>2.920522863429824e-14</v>
+        <v>2.924238240359655e-14</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>2.913626218933894e-14</v>
+        <v>2.917277053327747e-14</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>2.905193156199334e-14</v>
+        <v>2.908956355370278e-14</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>2.89468064497299e-14</v>
+        <v>2.898743365612924e-14</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>2.881548731506241e-14</v>
+        <v>2.886108287322239e-14</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>2.865649064645718e-14</v>
+        <v>2.87090116956042e-14</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>2.847604477387367e-14</v>
+        <v>2.853720092838724e-14</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>2.828127909185853e-14</v>
+        <v>2.835250538926517e-14</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>2.807932299495841e-14</v>
+        <v>2.816177989593168e-14</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>2.787730587771997e-14</v>
+        <v>2.797187926608044e-14</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>2.768235713468987e-14</v>
+        <v>2.778965831740512e-14</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>2.750160616041476e-14</v>
+        <v>2.762197186759941e-14</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>2.734218234944128e-14</v>
+        <v>2.747567473435697e-14</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>2.721121509631608e-14</v>
+        <v>2.735762173537149e-14</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>2.711583379558591e-14</v>
+        <v>2.727466768833669e-14</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>2.706316784179719e-14</v>
+        <v>2.723366741094609e-14</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>2.706034662949677e-14</v>
+        <v>2.724147572089348e-14</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>2.71144995532313e-14</v>
+        <v>2.730494743587261e-14</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>2.723275600754721e-14</v>
+        <v>2.743093737357687e-14</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>2.74222453869914e-14</v>
+        <v>2.762630035170023e-14</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>2.769009708611045e-14</v>
+        <v>2.789789118793626e-14</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>2.804344049945101e-14</v>
+        <v>2.825256469997865e-14</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>2.848940502155973e-14</v>
+        <v>2.869717570552106e-14</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>2.903512004698327e-14</v>
+        <v>2.923857902225718e-14</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>2.968771497026828e-14</v>
+        <v>2.988362946788068e-14</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.04543191859614e-14</v>
+        <v>3.063918186008522e-14</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.13420620886093e-14</v>
+        <v>3.151209101656451e-14</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>3.235807307275862e-14</v>
+        <v>3.25092117550122e-14</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.350948153295602e-14</v>
+        <v>3.363739889312198e-14</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>3.480341686374816e-14</v>
+        <v>3.490350724858752e-14</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>3.624700845968168e-14</v>
+        <v>3.631439163910248e-14</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>3.784738571530324e-14</v>
+        <v>3.787690688236056e-14</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>3.961031958115354e-14</v>
+        <v>3.959673150787395e-14</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>4.152662685365377e-14</v>
+        <v>4.146659511632343e-14</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>4.357785994235549e-14</v>
+        <v>4.347120519725707e-14</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>4.574543319864899e-14</v>
+        <v>4.559514969449069e-14</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>4.801076097392465e-14</v>
+        <v>4.782301655184013e-14</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>5.035525761957277e-14</v>
+        <v>5.013939371312125e-14</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>5.27603374869837e-14</v>
+        <v>5.252886912214987e-14</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>5.520741492754777e-14</v>
+        <v>5.497603072274183e-14</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>5.767790429265533e-14</v>
+        <v>5.746546645871299e-14</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>6.015321993369668e-14</v>
+        <v>5.998176427387915e-14</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>6.261413860869025e-14</v>
+        <v>6.250820883010245e-14</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>6.503637350613503e-14</v>
+        <v>6.501773452673199e-14</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>6.739322313875705e-14</v>
+        <v>6.747834001017838e-14</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>6.96579711482998e-14</v>
+        <v>6.985799352960549e-14</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>7.18039011765069e-14</v>
+        <v>7.212466333417726e-14</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>7.380429686512193e-14</v>
+        <v>7.424631767305752e-14</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>7.563244185588838e-14</v>
+        <v>7.619092479541019e-14</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>7.726161979054986e-14</v>
+        <v>7.792645295039916e-14</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>7.866511431084992e-14</v>
+        <v>7.942087038718832e-14</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>7.981620905853113e-14</v>
+        <v>8.064214535494048e-14</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>8.068818767534002e-14</v>
+        <v>8.15582461028227e-14</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>8.12543338030168e-14</v>
+        <v>8.213714087999536e-14</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>8.148793108330716e-14</v>
+        <v>8.234679793562449e-14</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>8.136226315795383e-14</v>
+        <v>8.215518551887326e-14</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>8.085765314567087e-14</v>
+        <v>8.153932283760342e-14</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>7.999801318604649e-14</v>
+        <v>8.053227338098805e-14</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>7.882391872809749e-14</v>
+        <v>7.918852537274271e-14</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>7.737597868391705e-14</v>
+        <v>7.756261006150128e-14</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>7.56948019655984e-14</v>
+        <v>7.57090586958977e-14</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>7.382099748523475e-14</v>
+        <v>7.368240252456591e-14</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>7.179517415491934e-14</v>
+        <v>7.153717279613987e-14</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>6.965794088674535e-14</v>
+        <v>6.932790075925345e-14</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>6.7449906592806e-14</v>
+        <v>6.710911766254061e-14</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>6.521131995836009e-14</v>
+        <v>6.493417550725819e-14</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>6.297461574665791e-14</v>
+        <v>6.283084644842728e-14</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>6.076466799339865e-14</v>
+        <v>6.080215165840332e-14</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>5.860604116356327e-14</v>
+        <v>5.885009889126556e-14</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>5.652329972213265e-14</v>
+        <v>5.69766959010931e-14</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>5.454100813408774e-14</v>
+        <v>5.518395044196519e-14</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>5.26837308644095e-14</v>
+        <v>5.347387026796099e-14</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>5.097603237807882e-14</v>
+        <v>5.184846313315968e-14</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>4.944247714007665e-14</v>
+        <v>5.030973679164045e-14</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>4.810758142273812e-14</v>
+        <v>4.885969714114553e-14</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>4.698015052649808e-14</v>
+        <v>4.749974490704619e-14</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>4.603075248805789e-14</v>
+        <v>4.622980795003679e-14</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>4.522424918266481e-14</v>
+        <v>4.504959433465402e-14</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>4.45255024855661e-14</v>
+        <v>4.395881212543464e-14</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>4.3899374272009e-14</v>
+        <v>4.295716938691533e-14</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>4.331072641724078e-14</v>
+        <v>4.204437418363283e-14</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>4.272442079650868e-14</v>
+        <v>4.122013458012384e-14</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>4.211055616744393e-14</v>
+        <v>4.048432316009138e-14</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>4.147947775376855e-14</v>
+        <v>3.983807686923124e-14</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>4.086019119510937e-14</v>
+        <v>3.928311887913515e-14</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>4.028180433015201e-14</v>
+        <v>3.882117557202713e-14</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>3.977342499758206e-14</v>
+        <v>3.845397333013118e-14</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>3.936416103608517e-14</v>
+        <v>3.818323853567135e-14</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>3.908265702389053e-14</v>
+        <v>3.801073049833319e-14</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>3.894272716819263e-14</v>
+        <v>3.793926263562122e-14</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.894058093396975e-14</v>
+        <v>3.797289966862473e-14</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.907140453103534e-14</v>
+        <v>3.811577904899832e-14</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.933038416920238e-14</v>
+        <v>3.837203822839587e-14</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.971270605828486e-14</v>
+        <v>3.874581465847238e-14</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>4.021355640809603e-14</v>
+        <v>3.92412457908821e-14</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>4.082812142844938e-14</v>
+        <v>3.986246907727946e-14</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>4.155150087700763e-14</v>
+        <v>4.061326024068741e-14</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>4.237673355102782e-14</v>
+        <v>4.148877163986501e-14</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>4.329475615109061e-14</v>
+        <v>4.247536014904464e-14</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>4.429641069736443e-14</v>
+        <v>4.355898648555956e-14</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>4.537253921001769e-14</v>
+        <v>4.472561136674314e-14</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>4.651398370921882e-14</v>
+        <v>4.596119550992864e-14</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>4.771158621513624e-14</v>
+        <v>4.725169963244941e-14</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>4.89561887479384e-14</v>
+        <v>4.858308445163874e-14</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>5.023863332779369e-14</v>
+        <v>4.994131068482993e-14</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>5.15498543618636e-14</v>
+        <v>5.131304270575627e-14</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>5.288146245026998e-14</v>
+        <v>5.269009504499109e-14</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>5.422536869955121e-14</v>
+        <v>5.406657101052357e-14</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>5.557348557961429e-14</v>
+        <v>5.543658429430492e-14</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>5.691772556036611e-14</v>
+        <v>5.679424858828627e-14</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>5.825000111171366e-14</v>
+        <v>5.813367758441884e-14</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>5.95622247035639e-14</v>
+        <v>5.944898497465382e-14</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>6.084630880582376e-14</v>
+        <v>6.073428445094235e-14</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>6.209416588840022e-14</v>
+        <v>6.198368970523564e-14</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>6.329759661673689e-14</v>
+        <v>6.319119392885374e-14</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>6.443748622793043e-14</v>
+        <v>6.433902588112857e-14</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>6.547479806007251e-14</v>
+        <v>6.538794289411784e-14</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>6.636837530735734e-14</v>
+        <v>6.629641725087395e-14</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>6.70770611639792e-14</v>
+        <v>6.702292123444938e-14</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>6.755969882413222e-14</v>
+        <v>6.752592712789648e-14</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>6.777513148201071e-14</v>
+        <v>6.776390721426769e-14</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>6.768220233180885e-14</v>
+        <v>6.769533377661547e-14</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>6.723975456772088e-14</v>
+        <v>6.727867909799221e-14</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>6.640665302980585e-14</v>
+        <v>6.647243697781243e-14</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>6.51608789381141e-14</v>
+        <v>6.52541032261202e-14</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>6.353459954548461e-14</v>
+        <v>6.365503550188162e-14</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>6.156951677285777e-14</v>
+        <v>6.171606908821003e-14</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>5.930733254118668e-14</v>
+        <v>5.947803926823138e-14</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>5.678976417695024e-14</v>
+        <v>5.698179671276479e-14</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>5.411196081571132e-14</v>
+        <v>5.432156205174426e-14</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>5.154213102820429e-14</v>
+        <v>5.176441502539589e-14</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>4.93834574686287e-14</v>
+        <v>4.961236897317475e-14</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>4.793912279118161e-14</v>
+        <v>4.816743723453343e-14</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>4.75123073380341e-14</v>
+        <v>4.773163086637097e-14</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>4.825147202402262e-14</v>
+        <v>4.845421377702317e-14</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>4.973132090600476e-14</v>
+        <v>4.991800695595882e-14</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>5.139358774927226e-14</v>
+        <v>5.157455613374612e-14</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>5.269074709737614e-14</v>
+        <v>5.288574149576942e-14</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>5.33542695102019e-14</v>
+        <v>5.358188482960378e-14</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>5.341362325383392e-14</v>
+        <v>5.368003238130289e-14</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>5.291282288322796e-14</v>
+        <v>5.321122639995251e-14</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>5.189588295333975e-14</v>
+        <v>5.220650913463837e-14</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>5.04068237945311e-14</v>
+        <v>5.069692981717038e-14</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>4.852925614609225e-14</v>
+        <v>4.87614042535572e-14</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>4.648091300355603e-14</v>
+        <v>4.664100805325281e-14</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>4.450790193270556e-14</v>
+        <v>4.461112294956808e-14</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>4.285382899176174e-14</v>
+        <v>4.294430227312376e-14</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>4.159443668337851e-14</v>
+        <v>4.172329951571145e-14</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>4.053450975376959e-14</v>
+        <v>4.07245018567437e-14</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>3.945421898989937e-14</v>
+        <v>3.969646598269087e-14</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>3.813830824398321e-14</v>
+        <v>3.839339791524486e-14</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>3.648321055068023e-14</v>
+        <v>3.670747888476506e-14</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>3.450078838645086e-14</v>
+        <v>3.467348585891008e-14</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>3.220822589868779e-14</v>
+        <v>3.233276972335831e-14</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>2.96344722329347e-14</v>
+        <v>2.973307713098547e-14</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.685145110927925e-14</v>
+        <v>2.694551686109176e-14</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>2.394089580148371e-14</v>
+        <v>2.404653042833417e-14</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.098453958331037e-14</v>
+        <v>2.111255934736971e-14</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.806411572852151e-14</v>
+        <v>1.822004513285536e-14</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.526135751087943e-14</v>
+        <v>1.544542929944812e-14</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.26579982041464e-14</v>
+        <v>1.286515336180501e-14</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.033577108208472e-14</v>
+        <v>1.0555658834583e-14</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>8.376409418458368e-15</v>
+        <v>8.593387232440807e-15</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>6.860477306290783e-15</v>
+        <v>7.053741956980777e-15</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>5.786991867413848e-15</v>
+        <v>5.939721030125313e-15</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>5.021543864619338e-15</v>
+        <v>5.135853497638174e-15</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>4.418288978742141e-15</v>
+        <v>4.516369031645607e-15</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>3.889861246164124e-15</v>
+        <v>3.997975377068547e-15</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.442018480281183e-15</v>
+        <v>3.565024427540985e-15</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.086750792617454e-15</v>
+        <v>3.208294403233095e-15</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.820732651318538e-15</v>
+        <v>2.921452300709053e-15</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.633783720719475e-15</v>
+        <v>2.69945804265727e-15</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.515691538780372e-15</v>
+        <v>2.537277611316592e-15</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.456243643461332e-15</v>
+        <v>2.429876988925867e-15</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.445227572722461e-15</v>
+        <v>2.372222157723944e-15</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.472436984224045e-15</v>
+        <v>2.359280541525371e-15</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.529740113988837e-15</v>
+        <v>2.386508258308215e-15</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.614090668892706e-15</v>
+        <v>2.450559375460213e-15</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.723207318334559e-15</v>
+        <v>2.54826815733205e-15</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.854808731713306e-15</v>
+        <v>2.676468868274414e-15</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.006613578427851e-15</v>
+        <v>2.831995772637992e-15</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>3.176340527877102e-15</v>
+        <v>3.01168313477347e-15</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>3.361708249459967e-15</v>
+        <v>3.212365219031534e-15</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>3.560435412575352e-15</v>
+        <v>3.430876289762871e-15</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>3.770240686622166e-15</v>
+        <v>3.664050611318167e-15</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>3.988842740999311e-15</v>
+        <v>3.908722448048107e-15</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>4.213960245105699e-15</v>
+        <v>4.161726064303381e-15</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>4.443311868340236e-15</v>
+        <v>4.419895724434674e-15</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>4.674616280101828e-15</v>
+        <v>4.680065692792672e-15</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>4.905592149789382e-15</v>
+        <v>4.939070233728062e-15</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>5.133958146801807e-15</v>
+        <v>5.193743611591529e-15</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>5.357432940538007e-15</v>
+        <v>5.440920090733761e-15</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>5.57373520039689e-15</v>
+        <v>5.677433935505445e-15</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>5.780583595777366e-15</v>
+        <v>5.900119410257266e-15</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>5.975696796078338e-15</v>
+        <v>6.105810779339912e-15</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>6.156834296377577e-15</v>
+        <v>6.291431090655034e-15</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>6.322520884223777e-15</v>
+        <v>6.455567672649972e-15</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>6.471961019115598e-15</v>
+        <v>6.598285935481686e-15</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>6.604382786523262e-15</v>
+        <v>6.719702668676906e-15</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>6.719014271916897e-15</v>
+        <v>6.819934661762285e-15</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>6.815083560767031e-15</v>
+        <v>6.899098704264811e-15</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>6.891818738543517e-15</v>
+        <v>6.957311585710912e-15</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>6.948447890716884e-15</v>
+        <v>6.994690095627552e-15</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>6.98419910275713e-15</v>
+        <v>7.011351023541312e-15</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>6.998300460134619e-15</v>
+        <v>7.007411158979008e-15</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>6.989980048319531e-15</v>
+        <v>6.982987291467347e-15</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>6.958465952782093e-15</v>
+        <v>6.938196210533063e-15</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>6.902986258992528e-15</v>
+        <v>6.873154705702888e-15</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>6.822769052421062e-15</v>
+        <v>6.787979566503557e-15</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>6.717042418537919e-15</v>
+        <v>6.682787582461802e-15</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>6.585034442813328e-15</v>
+        <v>6.557695543104359e-15</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>6.425973210717509e-15</v>
+        <v>6.412820237957956e-15</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>6.239086807720691e-15</v>
+        <v>6.248278456549332e-15</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>6.023603319293101e-15</v>
+        <v>6.064186988405219e-15</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>5.778750830904958e-15</v>
+        <v>5.860662623052349e-15</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>5.506520218021195e-15</v>
+        <v>5.639134126381036e-15</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>5.243820751054329e-15</v>
+        <v>5.41761209240217e-15</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.051495219851802e-15</v>
+        <v>5.225472514543935e-15</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>4.990853487162538e-15</v>
+        <v>5.092313186880963e-15</v>
       </c>
     </row>
   </sheetData>
